--- a/data-raw/electric-uptake.xlsx
+++ b/data-raw/electric-uptake.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lffox/Dropbox (Grattan Institute)/Transport Program/Project - Trucks/Analysis/truck-modelling/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lffox/Dropbox (Grattan Institute)/Transport Program/Project - Trucks/Analysis/truck-modelling/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62903CD3-3862-EE43-B23B-C0692601E05E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E58CB26-C6AB-7545-AF42-749002AA1FEA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="21940" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="21940" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="electric-uptake" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="18">
   <si>
     <t>sales_year</t>
   </si>
@@ -807,7 +807,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'electric-uptake'!$C$120:$C$123</c:f>
+              <c:f>'electric-uptake'!$C$135:$C$138</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -828,7 +828,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'electric-uptake'!$D$120:$D$123</c:f>
+              <c:f>'electric-uptake'!$D$135:$D$138</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -3925,10 +3925,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D133"/>
+  <dimension ref="A1:D163"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="F79" sqref="F79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4751,167 +4751,197 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>4</v>
-      </c>
-      <c r="B68">
-        <v>1975</v>
-      </c>
-      <c r="D68">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="B68" s="3">
+        <v>2041</v>
+      </c>
+      <c r="C68" s="3"/>
+      <c r="D68" s="3">
+        <f>D67</f>
+        <v>77.413800000000009</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>4</v>
-      </c>
-      <c r="B69">
-        <v>1976</v>
-      </c>
-      <c r="D69">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="B69" s="3">
+        <v>2042</v>
+      </c>
+      <c r="C69" s="3"/>
+      <c r="D69" s="3">
+        <f t="shared" ref="D69:D72" si="1">D68</f>
+        <v>77.413800000000009</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>4</v>
-      </c>
-      <c r="B70">
-        <v>1977</v>
-      </c>
-      <c r="D70">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="B70" s="3">
+        <v>2043</v>
+      </c>
+      <c r="C70" s="3"/>
+      <c r="D70" s="3">
+        <f t="shared" si="1"/>
+        <v>77.413800000000009</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>4</v>
-      </c>
-      <c r="B71">
-        <v>1978</v>
-      </c>
-      <c r="D71">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="B71" s="3">
+        <v>2044</v>
+      </c>
+      <c r="C71" s="3"/>
+      <c r="D71" s="3">
+        <f t="shared" si="1"/>
+        <v>77.413800000000009</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>4</v>
-      </c>
-      <c r="B72">
-        <v>1979</v>
-      </c>
-      <c r="D72">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="B72" s="3">
+        <v>2045</v>
+      </c>
+      <c r="C72" s="3"/>
+      <c r="D72" s="3">
+        <f t="shared" si="1"/>
+        <v>77.413800000000009</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>4</v>
-      </c>
-      <c r="B73">
-        <v>1980</v>
-      </c>
-      <c r="D73">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="B73" s="3">
+        <v>2046</v>
+      </c>
+      <c r="C73" s="3"/>
+      <c r="D73" s="3">
+        <f t="shared" ref="D73:D82" si="2">D72</f>
+        <v>77.413800000000009</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>4</v>
-      </c>
-      <c r="B74">
-        <v>1981</v>
-      </c>
-      <c r="D74">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="B74" s="3">
+        <v>2047</v>
+      </c>
+      <c r="C74" s="3"/>
+      <c r="D74" s="3">
+        <f t="shared" si="2"/>
+        <v>77.413800000000009</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>4</v>
-      </c>
-      <c r="B75">
-        <v>1982</v>
-      </c>
-      <c r="D75">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="B75" s="3">
+        <v>2048</v>
+      </c>
+      <c r="C75" s="3"/>
+      <c r="D75" s="3">
+        <f t="shared" si="2"/>
+        <v>77.413800000000009</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>4</v>
-      </c>
-      <c r="B76">
-        <v>1983</v>
-      </c>
-      <c r="D76">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="B76" s="3">
+        <v>2049</v>
+      </c>
+      <c r="C76" s="3"/>
+      <c r="D76" s="3">
+        <f t="shared" si="2"/>
+        <v>77.413800000000009</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>4</v>
-      </c>
-      <c r="B77">
-        <v>1984</v>
-      </c>
-      <c r="D77">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="B77" s="3">
+        <v>2050</v>
+      </c>
+      <c r="C77" s="3"/>
+      <c r="D77" s="3">
+        <f t="shared" si="2"/>
+        <v>77.413800000000009</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>4</v>
-      </c>
-      <c r="B78">
-        <v>1985</v>
-      </c>
-      <c r="D78">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="B78" s="3">
+        <v>2051</v>
+      </c>
+      <c r="C78" s="3"/>
+      <c r="D78" s="3">
+        <f t="shared" si="2"/>
+        <v>77.413800000000009</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>4</v>
-      </c>
-      <c r="B79">
-        <v>1986</v>
-      </c>
-      <c r="D79">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="B79" s="3">
+        <v>2052</v>
+      </c>
+      <c r="C79" s="3"/>
+      <c r="D79" s="3">
+        <f t="shared" si="2"/>
+        <v>77.413800000000009</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>4</v>
-      </c>
-      <c r="B80">
-        <v>1987</v>
-      </c>
-      <c r="D80">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="B80" s="3">
+        <v>2053</v>
+      </c>
+      <c r="C80" s="3"/>
+      <c r="D80" s="3">
+        <f t="shared" si="2"/>
+        <v>77.413800000000009</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>4</v>
-      </c>
-      <c r="B81">
-        <v>1988</v>
-      </c>
-      <c r="D81">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="B81" s="3">
+        <v>2054</v>
+      </c>
+      <c r="C81" s="3"/>
+      <c r="D81" s="3">
+        <f t="shared" si="2"/>
+        <v>77.413800000000009</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>4</v>
-      </c>
-      <c r="B82">
-        <v>1989</v>
-      </c>
-      <c r="D82">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="B82" s="3">
+        <v>2055</v>
+      </c>
+      <c r="C82" s="3"/>
+      <c r="D82" s="3">
+        <f t="shared" si="2"/>
+        <v>77.413800000000009</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
@@ -4919,7 +4949,7 @@
         <v>4</v>
       </c>
       <c r="B83">
-        <v>1990</v>
+        <v>1975</v>
       </c>
       <c r="D83">
         <v>0</v>
@@ -4930,7 +4960,7 @@
         <v>4</v>
       </c>
       <c r="B84">
-        <v>1991</v>
+        <v>1976</v>
       </c>
       <c r="D84">
         <v>0</v>
@@ -4941,7 +4971,7 @@
         <v>4</v>
       </c>
       <c r="B85">
-        <v>1992</v>
+        <v>1977</v>
       </c>
       <c r="D85">
         <v>0</v>
@@ -4952,7 +4982,7 @@
         <v>4</v>
       </c>
       <c r="B86">
-        <v>1993</v>
+        <v>1978</v>
       </c>
       <c r="D86">
         <v>0</v>
@@ -4963,7 +4993,7 @@
         <v>4</v>
       </c>
       <c r="B87">
-        <v>1994</v>
+        <v>1979</v>
       </c>
       <c r="D87">
         <v>0</v>
@@ -4974,7 +5004,7 @@
         <v>4</v>
       </c>
       <c r="B88">
-        <v>1995</v>
+        <v>1980</v>
       </c>
       <c r="D88">
         <v>0</v>
@@ -4985,7 +5015,7 @@
         <v>4</v>
       </c>
       <c r="B89">
-        <v>1996</v>
+        <v>1981</v>
       </c>
       <c r="D89">
         <v>0</v>
@@ -4996,7 +5026,7 @@
         <v>4</v>
       </c>
       <c r="B90">
-        <v>1997</v>
+        <v>1982</v>
       </c>
       <c r="D90">
         <v>0</v>
@@ -5007,7 +5037,7 @@
         <v>4</v>
       </c>
       <c r="B91">
-        <v>1998</v>
+        <v>1983</v>
       </c>
       <c r="D91">
         <v>0</v>
@@ -5018,7 +5048,7 @@
         <v>4</v>
       </c>
       <c r="B92">
-        <v>1999</v>
+        <v>1984</v>
       </c>
       <c r="D92">
         <v>0</v>
@@ -5029,7 +5059,7 @@
         <v>4</v>
       </c>
       <c r="B93">
-        <v>2000</v>
+        <v>1985</v>
       </c>
       <c r="D93">
         <v>0</v>
@@ -5040,7 +5070,7 @@
         <v>4</v>
       </c>
       <c r="B94">
-        <v>2001</v>
+        <v>1986</v>
       </c>
       <c r="D94">
         <v>0</v>
@@ -5051,7 +5081,7 @@
         <v>4</v>
       </c>
       <c r="B95">
-        <v>2002</v>
+        <v>1987</v>
       </c>
       <c r="D95">
         <v>0</v>
@@ -5062,7 +5092,7 @@
         <v>4</v>
       </c>
       <c r="B96">
-        <v>2003</v>
+        <v>1988</v>
       </c>
       <c r="D96">
         <v>0</v>
@@ -5073,7 +5103,7 @@
         <v>4</v>
       </c>
       <c r="B97">
-        <v>2004</v>
+        <v>1989</v>
       </c>
       <c r="D97">
         <v>0</v>
@@ -5084,7 +5114,7 @@
         <v>4</v>
       </c>
       <c r="B98">
-        <v>2005</v>
+        <v>1990</v>
       </c>
       <c r="D98">
         <v>0</v>
@@ -5095,7 +5125,7 @@
         <v>4</v>
       </c>
       <c r="B99">
-        <v>2006</v>
+        <v>1991</v>
       </c>
       <c r="D99">
         <v>0</v>
@@ -5106,7 +5136,7 @@
         <v>4</v>
       </c>
       <c r="B100">
-        <v>2007</v>
+        <v>1992</v>
       </c>
       <c r="D100">
         <v>0</v>
@@ -5117,7 +5147,7 @@
         <v>4</v>
       </c>
       <c r="B101">
-        <v>2008</v>
+        <v>1993</v>
       </c>
       <c r="D101">
         <v>0</v>
@@ -5128,7 +5158,7 @@
         <v>4</v>
       </c>
       <c r="B102">
-        <v>2009</v>
+        <v>1994</v>
       </c>
       <c r="D102">
         <v>0</v>
@@ -5139,7 +5169,7 @@
         <v>4</v>
       </c>
       <c r="B103">
-        <v>2010</v>
+        <v>1995</v>
       </c>
       <c r="D103">
         <v>0</v>
@@ -5150,7 +5180,7 @@
         <v>4</v>
       </c>
       <c r="B104">
-        <v>2011</v>
+        <v>1996</v>
       </c>
       <c r="D104">
         <v>0</v>
@@ -5161,7 +5191,7 @@
         <v>4</v>
       </c>
       <c r="B105">
-        <v>2012</v>
+        <v>1997</v>
       </c>
       <c r="D105">
         <v>0</v>
@@ -5172,7 +5202,7 @@
         <v>4</v>
       </c>
       <c r="B106">
-        <v>2013</v>
+        <v>1998</v>
       </c>
       <c r="D106">
         <v>0</v>
@@ -5183,7 +5213,7 @@
         <v>4</v>
       </c>
       <c r="B107">
-        <v>2014</v>
+        <v>1999</v>
       </c>
       <c r="D107">
         <v>0</v>
@@ -5194,7 +5224,7 @@
         <v>4</v>
       </c>
       <c r="B108">
-        <v>2015</v>
+        <v>2000</v>
       </c>
       <c r="D108">
         <v>0</v>
@@ -5205,7 +5235,7 @@
         <v>4</v>
       </c>
       <c r="B109">
-        <v>2016</v>
+        <v>2001</v>
       </c>
       <c r="D109">
         <v>0</v>
@@ -5216,7 +5246,7 @@
         <v>4</v>
       </c>
       <c r="B110">
-        <v>2017</v>
+        <v>2002</v>
       </c>
       <c r="D110">
         <v>0</v>
@@ -5227,7 +5257,7 @@
         <v>4</v>
       </c>
       <c r="B111">
-        <v>2018</v>
+        <v>2003</v>
       </c>
       <c r="D111">
         <v>0</v>
@@ -5238,7 +5268,7 @@
         <v>4</v>
       </c>
       <c r="B112">
-        <v>2019</v>
+        <v>2004</v>
       </c>
       <c r="D112">
         <v>0</v>
@@ -5249,7 +5279,7 @@
         <v>4</v>
       </c>
       <c r="B113">
-        <v>2020</v>
+        <v>2005</v>
       </c>
       <c r="D113">
         <v>0</v>
@@ -5260,7 +5290,7 @@
         <v>4</v>
       </c>
       <c r="B114">
-        <v>2021</v>
+        <v>2006</v>
       </c>
       <c r="D114">
         <v>0</v>
@@ -5271,7 +5301,7 @@
         <v>4</v>
       </c>
       <c r="B115">
-        <v>2022</v>
+        <v>2007</v>
       </c>
       <c r="D115">
         <v>0</v>
@@ -5282,7 +5312,7 @@
         <v>4</v>
       </c>
       <c r="B116">
-        <v>2023</v>
+        <v>2008</v>
       </c>
       <c r="D116">
         <v>0</v>
@@ -5293,7 +5323,7 @@
         <v>4</v>
       </c>
       <c r="B117">
-        <v>2024</v>
+        <v>2009</v>
       </c>
       <c r="D117">
         <v>0</v>
@@ -5304,7 +5334,7 @@
         <v>4</v>
       </c>
       <c r="B118">
-        <v>2025</v>
+        <v>2010</v>
       </c>
       <c r="D118">
         <v>0</v>
@@ -5315,7 +5345,7 @@
         <v>4</v>
       </c>
       <c r="B119">
-        <v>2026</v>
+        <v>2011</v>
       </c>
       <c r="D119">
         <v>0</v>
@@ -5326,13 +5356,10 @@
         <v>4</v>
       </c>
       <c r="B120">
-        <v>2027</v>
-      </c>
-      <c r="C120" s="2">
-        <v>1</v>
+        <v>2012</v>
       </c>
       <c r="D120">
-        <v>0.33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
@@ -5340,13 +5367,10 @@
         <v>4</v>
       </c>
       <c r="B121">
-        <v>2028</v>
-      </c>
-      <c r="C121" s="2">
-        <v>2</v>
+        <v>2013</v>
       </c>
       <c r="D121">
-        <v>0.49</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
@@ -5354,13 +5378,10 @@
         <v>4</v>
       </c>
       <c r="B122">
-        <v>2029</v>
-      </c>
-      <c r="C122" s="2">
-        <v>3</v>
+        <v>2014</v>
       </c>
       <c r="D122">
-        <v>0.98</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
@@ -5368,162 +5389,561 @@
         <v>4</v>
       </c>
       <c r="B123">
-        <v>2030</v>
-      </c>
-      <c r="C123" s="2">
-        <v>4</v>
+        <v>2015</v>
       </c>
       <c r="D123">
-        <v>1.48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>4</v>
       </c>
-      <c r="B124" s="3">
-        <v>2031</v>
-      </c>
-      <c r="C124" s="3">
-        <v>5</v>
-      </c>
-      <c r="D124" s="3">
-        <f t="shared" ref="D124:D133" si="1">0.085*C124^2-0.031*C124+0.26</f>
-        <v>2.23</v>
+      <c r="B124">
+        <v>2016</v>
+      </c>
+      <c r="D124">
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>4</v>
       </c>
-      <c r="B125" s="3">
-        <v>2032</v>
-      </c>
-      <c r="C125" s="3">
-        <v>6</v>
-      </c>
-      <c r="D125" s="3">
-        <f t="shared" si="1"/>
-        <v>3.1340000000000003</v>
+      <c r="B125">
+        <v>2017</v>
+      </c>
+      <c r="D125">
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>4</v>
       </c>
-      <c r="B126" s="3">
-        <v>2033</v>
-      </c>
-      <c r="C126" s="3">
-        <v>7</v>
-      </c>
-      <c r="D126" s="3">
-        <f t="shared" si="1"/>
-        <v>4.2080000000000002</v>
+      <c r="B126">
+        <v>2018</v>
+      </c>
+      <c r="D126">
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>4</v>
       </c>
-      <c r="B127" s="3">
-        <v>2034</v>
-      </c>
-      <c r="C127" s="3">
-        <v>8</v>
-      </c>
-      <c r="D127" s="3">
-        <f t="shared" si="1"/>
-        <v>5.452</v>
+      <c r="B127">
+        <v>2019</v>
+      </c>
+      <c r="D127">
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>4</v>
       </c>
-      <c r="B128" s="3">
-        <v>2035</v>
-      </c>
-      <c r="C128" s="3">
-        <v>9</v>
-      </c>
-      <c r="D128" s="3">
-        <f t="shared" si="1"/>
-        <v>6.8660000000000005</v>
+      <c r="B128">
+        <v>2020</v>
+      </c>
+      <c r="D128">
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>4</v>
       </c>
-      <c r="B129" s="3">
-        <v>2036</v>
-      </c>
-      <c r="C129" s="3">
-        <v>10</v>
-      </c>
-      <c r="D129" s="3">
-        <f t="shared" si="1"/>
-        <v>8.4499999999999993</v>
+      <c r="B129">
+        <v>2021</v>
+      </c>
+      <c r="D129">
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>4</v>
       </c>
-      <c r="B130" s="3">
-        <v>2037</v>
-      </c>
-      <c r="C130" s="3">
-        <v>11</v>
-      </c>
-      <c r="D130" s="3">
-        <f t="shared" si="1"/>
-        <v>10.204000000000001</v>
+      <c r="B130">
+        <v>2022</v>
+      </c>
+      <c r="D130">
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>4</v>
       </c>
-      <c r="B131" s="3">
-        <v>2038</v>
-      </c>
-      <c r="C131" s="3">
-        <v>12</v>
-      </c>
-      <c r="D131" s="3">
-        <f t="shared" si="1"/>
-        <v>12.128</v>
+      <c r="B131">
+        <v>2023</v>
+      </c>
+      <c r="D131">
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>4</v>
       </c>
-      <c r="B132" s="3">
-        <v>2039</v>
-      </c>
-      <c r="C132" s="3">
-        <v>13</v>
-      </c>
-      <c r="D132" s="3">
-        <f t="shared" si="1"/>
-        <v>14.222</v>
+      <c r="B132">
+        <v>2024</v>
+      </c>
+      <c r="D132">
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>4</v>
       </c>
-      <c r="B133" s="3">
+      <c r="B133">
+        <v>2025</v>
+      </c>
+      <c r="D133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>4</v>
+      </c>
+      <c r="B134">
+        <v>2026</v>
+      </c>
+      <c r="D134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>4</v>
+      </c>
+      <c r="B135">
+        <v>2027</v>
+      </c>
+      <c r="C135" s="2">
+        <v>1</v>
+      </c>
+      <c r="D135">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>4</v>
+      </c>
+      <c r="B136">
+        <v>2028</v>
+      </c>
+      <c r="C136" s="2">
+        <v>2</v>
+      </c>
+      <c r="D136">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>4</v>
+      </c>
+      <c r="B137">
+        <v>2029</v>
+      </c>
+      <c r="C137" s="2">
+        <v>3</v>
+      </c>
+      <c r="D137">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>4</v>
+      </c>
+      <c r="B138">
+        <v>2030</v>
+      </c>
+      <c r="C138" s="2">
+        <v>4</v>
+      </c>
+      <c r="D138">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>4</v>
+      </c>
+      <c r="B139" s="3">
+        <v>2031</v>
+      </c>
+      <c r="C139" s="3">
+        <v>5</v>
+      </c>
+      <c r="D139" s="3">
+        <f t="shared" ref="D139:D148" si="3">0.085*C139^2-0.031*C139+0.26</f>
+        <v>2.23</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>4</v>
+      </c>
+      <c r="B140" s="3">
+        <v>2032</v>
+      </c>
+      <c r="C140" s="3">
+        <v>6</v>
+      </c>
+      <c r="D140" s="3">
+        <f t="shared" si="3"/>
+        <v>3.1340000000000003</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>4</v>
+      </c>
+      <c r="B141" s="3">
+        <v>2033</v>
+      </c>
+      <c r="C141" s="3">
+        <v>7</v>
+      </c>
+      <c r="D141" s="3">
+        <f t="shared" si="3"/>
+        <v>4.2080000000000002</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>4</v>
+      </c>
+      <c r="B142" s="3">
+        <v>2034</v>
+      </c>
+      <c r="C142" s="3">
+        <v>8</v>
+      </c>
+      <c r="D142" s="3">
+        <f t="shared" si="3"/>
+        <v>5.452</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>4</v>
+      </c>
+      <c r="B143" s="3">
+        <v>2035</v>
+      </c>
+      <c r="C143" s="3">
+        <v>9</v>
+      </c>
+      <c r="D143" s="3">
+        <f t="shared" si="3"/>
+        <v>6.8660000000000005</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>4</v>
+      </c>
+      <c r="B144" s="3">
+        <v>2036</v>
+      </c>
+      <c r="C144" s="3">
+        <v>10</v>
+      </c>
+      <c r="D144" s="3">
+        <f t="shared" si="3"/>
+        <v>8.4499999999999993</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>4</v>
+      </c>
+      <c r="B145" s="3">
+        <v>2037</v>
+      </c>
+      <c r="C145" s="3">
+        <v>11</v>
+      </c>
+      <c r="D145" s="3">
+        <f t="shared" si="3"/>
+        <v>10.204000000000001</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>4</v>
+      </c>
+      <c r="B146" s="3">
+        <v>2038</v>
+      </c>
+      <c r="C146" s="3">
+        <v>12</v>
+      </c>
+      <c r="D146" s="3">
+        <f t="shared" si="3"/>
+        <v>12.128</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>4</v>
+      </c>
+      <c r="B147" s="3">
+        <v>2039</v>
+      </c>
+      <c r="C147" s="3">
+        <v>13</v>
+      </c>
+      <c r="D147" s="3">
+        <f t="shared" si="3"/>
+        <v>14.222</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>4</v>
+      </c>
+      <c r="B148" s="3">
         <v>2040</v>
       </c>
-      <c r="C133" s="3">
+      <c r="C148" s="3">
         <v>14</v>
       </c>
-      <c r="D133" s="3">
-        <f t="shared" si="1"/>
+      <c r="D148" s="3">
+        <f t="shared" si="3"/>
+        <v>16.486000000000001</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>4</v>
+      </c>
+      <c r="B149" s="3">
+        <v>2041</v>
+      </c>
+      <c r="C149" s="3">
+        <v>15</v>
+      </c>
+      <c r="D149" s="3">
+        <f>D148</f>
+        <v>16.486000000000001</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>4</v>
+      </c>
+      <c r="B150" s="3">
+        <v>2042</v>
+      </c>
+      <c r="C150" s="3">
+        <v>16</v>
+      </c>
+      <c r="D150" s="3">
+        <f t="shared" ref="D150:D152" si="4">D149</f>
+        <v>16.486000000000001</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>4</v>
+      </c>
+      <c r="B151" s="3">
+        <v>2043</v>
+      </c>
+      <c r="C151" s="3">
+        <v>17</v>
+      </c>
+      <c r="D151" s="3">
+        <f t="shared" si="4"/>
+        <v>16.486000000000001</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>4</v>
+      </c>
+      <c r="B152" s="3">
+        <v>2044</v>
+      </c>
+      <c r="C152" s="3">
+        <v>18</v>
+      </c>
+      <c r="D152" s="3">
+        <f t="shared" si="4"/>
+        <v>16.486000000000001</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>4</v>
+      </c>
+      <c r="B153" s="3">
+        <v>2045</v>
+      </c>
+      <c r="C153" s="3">
+        <v>19</v>
+      </c>
+      <c r="D153" s="3">
+        <f>D152</f>
+        <v>16.486000000000001</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>4</v>
+      </c>
+      <c r="B154" s="3">
+        <v>2046</v>
+      </c>
+      <c r="C154" s="3">
+        <v>20</v>
+      </c>
+      <c r="D154" s="3">
+        <f t="shared" ref="D154:D163" si="5">D153</f>
+        <v>16.486000000000001</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>4</v>
+      </c>
+      <c r="B155" s="3">
+        <v>2047</v>
+      </c>
+      <c r="C155" s="3">
+        <v>21</v>
+      </c>
+      <c r="D155" s="3">
+        <f t="shared" si="5"/>
+        <v>16.486000000000001</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>4</v>
+      </c>
+      <c r="B156" s="3">
+        <v>2048</v>
+      </c>
+      <c r="C156" s="3">
+        <v>22</v>
+      </c>
+      <c r="D156" s="3">
+        <f t="shared" si="5"/>
+        <v>16.486000000000001</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>4</v>
+      </c>
+      <c r="B157" s="3">
+        <v>2049</v>
+      </c>
+      <c r="C157" s="3">
+        <v>23</v>
+      </c>
+      <c r="D157" s="3">
+        <f t="shared" si="5"/>
+        <v>16.486000000000001</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>4</v>
+      </c>
+      <c r="B158" s="3">
+        <v>2050</v>
+      </c>
+      <c r="C158" s="3">
+        <v>24</v>
+      </c>
+      <c r="D158" s="3">
+        <f t="shared" si="5"/>
+        <v>16.486000000000001</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>4</v>
+      </c>
+      <c r="B159" s="3">
+        <v>2051</v>
+      </c>
+      <c r="C159" s="3">
+        <v>25</v>
+      </c>
+      <c r="D159" s="3">
+        <f t="shared" si="5"/>
+        <v>16.486000000000001</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>4</v>
+      </c>
+      <c r="B160" s="3">
+        <v>2052</v>
+      </c>
+      <c r="C160" s="3">
+        <v>26</v>
+      </c>
+      <c r="D160" s="3">
+        <f t="shared" si="5"/>
+        <v>16.486000000000001</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>4</v>
+      </c>
+      <c r="B161" s="3">
+        <v>2053</v>
+      </c>
+      <c r="C161" s="3">
+        <v>27</v>
+      </c>
+      <c r="D161" s="3">
+        <f t="shared" si="5"/>
+        <v>16.486000000000001</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>4</v>
+      </c>
+      <c r="B162" s="3">
+        <v>2054</v>
+      </c>
+      <c r="C162" s="3">
+        <v>28</v>
+      </c>
+      <c r="D162" s="3">
+        <f t="shared" si="5"/>
+        <v>16.486000000000001</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>4</v>
+      </c>
+      <c r="B163" s="3">
+        <v>2055</v>
+      </c>
+      <c r="C163" s="3">
+        <v>29</v>
+      </c>
+      <c r="D163" s="3">
+        <f t="shared" si="5"/>
         <v>16.486000000000001</v>
       </c>
     </row>
@@ -5535,10 +5955,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I62"/>
+  <dimension ref="A1:I82"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H62" sqref="H62"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="F77" sqref="F77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6338,6 +6758,286 @@
         <v>20</v>
       </c>
       <c r="D62">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>12</v>
+      </c>
+      <c r="B63">
+        <v>2041</v>
+      </c>
+      <c r="C63">
+        <v>21</v>
+      </c>
+      <c r="D63">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>12</v>
+      </c>
+      <c r="B64">
+        <v>2042</v>
+      </c>
+      <c r="C64">
+        <v>22</v>
+      </c>
+      <c r="D64">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>12</v>
+      </c>
+      <c r="B65">
+        <v>2043</v>
+      </c>
+      <c r="C65">
+        <v>23</v>
+      </c>
+      <c r="D65">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>12</v>
+      </c>
+      <c r="B66">
+        <v>2044</v>
+      </c>
+      <c r="C66">
+        <v>24</v>
+      </c>
+      <c r="D66">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>12</v>
+      </c>
+      <c r="B67">
+        <v>2045</v>
+      </c>
+      <c r="C67">
+        <v>25</v>
+      </c>
+      <c r="D67">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>12</v>
+      </c>
+      <c r="B68">
+        <v>2046</v>
+      </c>
+      <c r="C68">
+        <v>26</v>
+      </c>
+      <c r="D68">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>12</v>
+      </c>
+      <c r="B69">
+        <v>2047</v>
+      </c>
+      <c r="C69">
+        <v>27</v>
+      </c>
+      <c r="D69">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>12</v>
+      </c>
+      <c r="B70">
+        <v>2048</v>
+      </c>
+      <c r="C70">
+        <v>28</v>
+      </c>
+      <c r="D70">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>12</v>
+      </c>
+      <c r="B71">
+        <v>2049</v>
+      </c>
+      <c r="C71">
+        <v>29</v>
+      </c>
+      <c r="D71">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>12</v>
+      </c>
+      <c r="B72">
+        <v>2050</v>
+      </c>
+      <c r="C72">
+        <v>30</v>
+      </c>
+      <c r="D72">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>12</v>
+      </c>
+      <c r="B73">
+        <v>2051</v>
+      </c>
+      <c r="C73">
+        <v>31</v>
+      </c>
+      <c r="D73">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>12</v>
+      </c>
+      <c r="B74">
+        <v>2052</v>
+      </c>
+      <c r="C74">
+        <v>32</v>
+      </c>
+      <c r="D74">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>12</v>
+      </c>
+      <c r="B75">
+        <v>2053</v>
+      </c>
+      <c r="C75">
+        <v>33</v>
+      </c>
+      <c r="D75">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>12</v>
+      </c>
+      <c r="B76">
+        <v>2054</v>
+      </c>
+      <c r="C76">
+        <v>34</v>
+      </c>
+      <c r="D76">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>12</v>
+      </c>
+      <c r="B77">
+        <v>2055</v>
+      </c>
+      <c r="C77">
+        <v>35</v>
+      </c>
+      <c r="D77">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>12</v>
+      </c>
+      <c r="B78">
+        <v>2056</v>
+      </c>
+      <c r="C78">
+        <v>36</v>
+      </c>
+      <c r="D78">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>12</v>
+      </c>
+      <c r="B79">
+        <v>2057</v>
+      </c>
+      <c r="C79">
+        <v>37</v>
+      </c>
+      <c r="D79">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>12</v>
+      </c>
+      <c r="B80">
+        <v>2058</v>
+      </c>
+      <c r="C80">
+        <v>38</v>
+      </c>
+      <c r="D80">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>12</v>
+      </c>
+      <c r="B81">
+        <v>2059</v>
+      </c>
+      <c r="C81">
+        <v>39</v>
+      </c>
+      <c r="D81">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>12</v>
+      </c>
+      <c r="B82">
+        <v>2060</v>
+      </c>
+      <c r="C82">
+        <v>40</v>
+      </c>
+      <c r="D82">
         <v>100</v>
       </c>
     </row>
@@ -6349,10 +7049,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="G72" sqref="G72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6625,13 +7325,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B19">
-        <v>2024</v>
+        <v>2041</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="D19" s="5">
         <v>1</v>
@@ -6639,13 +7339,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B20">
-        <v>2025</v>
+        <v>2042</v>
       </c>
       <c r="C20">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="D20" s="5">
         <v>1</v>
@@ -6653,13 +7353,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B21">
-        <v>2026</v>
+        <v>2043</v>
       </c>
       <c r="C21">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="D21" s="5">
         <v>1</v>
@@ -6667,13 +7367,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B22">
-        <v>2027</v>
+        <v>2044</v>
       </c>
       <c r="C22">
-        <v>7</v>
+        <v>100</v>
       </c>
       <c r="D22" s="5">
         <v>1</v>
@@ -6681,13 +7381,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B23">
-        <v>2028</v>
-      </c>
-      <c r="C23" s="4">
-        <v>11</v>
+        <v>2045</v>
+      </c>
+      <c r="C23">
+        <v>100</v>
       </c>
       <c r="D23" s="5">
         <v>1</v>
@@ -6695,13 +7395,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B24">
-        <v>2029</v>
-      </c>
-      <c r="C24" s="4">
-        <v>15</v>
+        <v>2046</v>
+      </c>
+      <c r="C24">
+        <v>100</v>
       </c>
       <c r="D24" s="5">
         <v>1</v>
@@ -6709,13 +7409,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B25">
-        <v>2030</v>
+        <v>2047</v>
       </c>
       <c r="C25">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="D25" s="5">
         <v>1</v>
@@ -6723,13 +7423,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B26">
-        <v>2031</v>
+        <v>2048</v>
       </c>
       <c r="C26">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="D26" s="5">
         <v>1</v>
@@ -6737,13 +7437,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B27">
-        <v>2032</v>
+        <v>2049</v>
       </c>
       <c r="C27">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="D27" s="5">
         <v>1</v>
@@ -6751,13 +7451,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B28">
-        <v>2033</v>
+        <v>2050</v>
       </c>
       <c r="C28">
-        <v>35</v>
+        <v>100</v>
       </c>
       <c r="D28" s="5">
         <v>1</v>
@@ -6765,13 +7465,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B29">
-        <v>2034</v>
+        <v>2051</v>
       </c>
       <c r="C29">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="D29" s="5">
         <v>1</v>
@@ -6779,13 +7479,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B30">
-        <v>2035</v>
+        <v>2052</v>
       </c>
       <c r="C30">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="D30" s="5">
         <v>1</v>
@@ -6793,13 +7493,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B31">
-        <v>2036</v>
+        <v>2053</v>
       </c>
       <c r="C31">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D31" s="5">
         <v>1</v>
@@ -6807,13 +7507,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B32">
-        <v>2037</v>
+        <v>2054</v>
       </c>
       <c r="C32">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="D32" s="5">
         <v>1</v>
@@ -6821,13 +7521,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B33">
-        <v>2038</v>
+        <v>2055</v>
       </c>
       <c r="C33">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="D33" s="5">
         <v>1</v>
@@ -6835,13 +7535,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B34">
-        <v>2039</v>
+        <v>2056</v>
       </c>
       <c r="C34">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="D34" s="5">
         <v>1</v>
@@ -6849,15 +7549,575 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B35">
+        <v>2057</v>
+      </c>
+      <c r="C35">
+        <v>100</v>
+      </c>
+      <c r="D35" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>3</v>
+      </c>
+      <c r="B36">
+        <v>2058</v>
+      </c>
+      <c r="C36">
+        <v>100</v>
+      </c>
+      <c r="D36" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>3</v>
+      </c>
+      <c r="B37">
+        <v>2059</v>
+      </c>
+      <c r="C37">
+        <v>100</v>
+      </c>
+      <c r="D37" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>3</v>
+      </c>
+      <c r="B38">
+        <v>2060</v>
+      </c>
+      <c r="C38">
+        <v>100</v>
+      </c>
+      <c r="D38" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39">
+        <v>2024</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40">
+        <v>2025</v>
+      </c>
+      <c r="C40">
+        <v>2</v>
+      </c>
+      <c r="D40" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41">
+        <v>2026</v>
+      </c>
+      <c r="C41">
+        <v>4</v>
+      </c>
+      <c r="D41" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42">
+        <v>2027</v>
+      </c>
+      <c r="C42">
+        <v>7</v>
+      </c>
+      <c r="D42" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>4</v>
+      </c>
+      <c r="B43">
+        <v>2028</v>
+      </c>
+      <c r="C43" s="4">
+        <v>11</v>
+      </c>
+      <c r="D43" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>4</v>
+      </c>
+      <c r="B44">
+        <v>2029</v>
+      </c>
+      <c r="C44" s="4">
+        <v>15</v>
+      </c>
+      <c r="D44" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>4</v>
+      </c>
+      <c r="B45">
+        <v>2030</v>
+      </c>
+      <c r="C45">
+        <v>20</v>
+      </c>
+      <c r="D45" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>4</v>
+      </c>
+      <c r="B46">
+        <v>2031</v>
+      </c>
+      <c r="C46">
+        <v>25</v>
+      </c>
+      <c r="D46" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>4</v>
+      </c>
+      <c r="B47">
+        <v>2032</v>
+      </c>
+      <c r="C47">
+        <v>30</v>
+      </c>
+      <c r="D47" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>4</v>
+      </c>
+      <c r="B48">
+        <v>2033</v>
+      </c>
+      <c r="C48">
+        <v>35</v>
+      </c>
+      <c r="D48" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>4</v>
+      </c>
+      <c r="B49">
+        <v>2034</v>
+      </c>
+      <c r="C49">
+        <v>40</v>
+      </c>
+      <c r="D49" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>4</v>
+      </c>
+      <c r="B50">
+        <v>2035</v>
+      </c>
+      <c r="C50">
+        <v>45</v>
+      </c>
+      <c r="D50" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>4</v>
+      </c>
+      <c r="B51">
+        <v>2036</v>
+      </c>
+      <c r="C51">
+        <v>50</v>
+      </c>
+      <c r="D51" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>4</v>
+      </c>
+      <c r="B52">
+        <v>2037</v>
+      </c>
+      <c r="C52">
+        <v>55</v>
+      </c>
+      <c r="D52" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>4</v>
+      </c>
+      <c r="B53">
+        <v>2038</v>
+      </c>
+      <c r="C53">
+        <v>60</v>
+      </c>
+      <c r="D53" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>4</v>
+      </c>
+      <c r="B54">
+        <v>2039</v>
+      </c>
+      <c r="C54">
+        <v>65</v>
+      </c>
+      <c r="D54" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>4</v>
+      </c>
+      <c r="B55">
         <v>2040</v>
       </c>
-      <c r="C35">
+      <c r="C55">
         <v>70</v>
       </c>
-      <c r="D35" s="5">
+      <c r="D55" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>4</v>
+      </c>
+      <c r="B56">
+        <v>2041</v>
+      </c>
+      <c r="C56">
+        <v>70</v>
+      </c>
+      <c r="D56" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>4</v>
+      </c>
+      <c r="B57">
+        <v>2042</v>
+      </c>
+      <c r="C57">
+        <v>70</v>
+      </c>
+      <c r="D57" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>4</v>
+      </c>
+      <c r="B58">
+        <v>2043</v>
+      </c>
+      <c r="C58">
+        <v>70</v>
+      </c>
+      <c r="D58" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>4</v>
+      </c>
+      <c r="B59">
+        <v>2044</v>
+      </c>
+      <c r="C59">
+        <v>70</v>
+      </c>
+      <c r="D59" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>4</v>
+      </c>
+      <c r="B60">
+        <v>2045</v>
+      </c>
+      <c r="C60">
+        <v>70</v>
+      </c>
+      <c r="D60" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>4</v>
+      </c>
+      <c r="B61">
+        <v>2046</v>
+      </c>
+      <c r="C61">
+        <v>70</v>
+      </c>
+      <c r="D61" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>4</v>
+      </c>
+      <c r="B62">
+        <v>2047</v>
+      </c>
+      <c r="C62">
+        <v>70</v>
+      </c>
+      <c r="D62" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>4</v>
+      </c>
+      <c r="B63">
+        <v>2048</v>
+      </c>
+      <c r="C63">
+        <v>70</v>
+      </c>
+      <c r="D63" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>4</v>
+      </c>
+      <c r="B64">
+        <v>2049</v>
+      </c>
+      <c r="C64">
+        <v>70</v>
+      </c>
+      <c r="D64" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>4</v>
+      </c>
+      <c r="B65">
+        <v>2050</v>
+      </c>
+      <c r="C65">
+        <v>70</v>
+      </c>
+      <c r="D65" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>4</v>
+      </c>
+      <c r="B66">
+        <v>2051</v>
+      </c>
+      <c r="C66">
+        <v>70</v>
+      </c>
+      <c r="D66" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>4</v>
+      </c>
+      <c r="B67">
+        <v>2052</v>
+      </c>
+      <c r="C67">
+        <v>70</v>
+      </c>
+      <c r="D67" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>4</v>
+      </c>
+      <c r="B68">
+        <v>2053</v>
+      </c>
+      <c r="C68">
+        <v>70</v>
+      </c>
+      <c r="D68" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>4</v>
+      </c>
+      <c r="B69">
+        <v>2054</v>
+      </c>
+      <c r="C69">
+        <v>70</v>
+      </c>
+      <c r="D69" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>4</v>
+      </c>
+      <c r="B70">
+        <v>2055</v>
+      </c>
+      <c r="C70">
+        <v>70</v>
+      </c>
+      <c r="D70" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>4</v>
+      </c>
+      <c r="B71">
+        <v>2056</v>
+      </c>
+      <c r="C71">
+        <v>70</v>
+      </c>
+      <c r="D71" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>4</v>
+      </c>
+      <c r="B72">
+        <v>2057</v>
+      </c>
+      <c r="C72">
+        <v>70</v>
+      </c>
+      <c r="D72" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>4</v>
+      </c>
+      <c r="B73">
+        <v>2058</v>
+      </c>
+      <c r="C73">
+        <v>70</v>
+      </c>
+      <c r="D73" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>4</v>
+      </c>
+      <c r="B74">
+        <v>2059</v>
+      </c>
+      <c r="C74">
+        <v>70</v>
+      </c>
+      <c r="D74" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>4</v>
+      </c>
+      <c r="B75">
+        <v>2060</v>
+      </c>
+      <c r="C75">
+        <v>70</v>
+      </c>
+      <c r="D75" s="5">
         <v>1</v>
       </c>
     </row>
